--- a/导表工具/S-死亡引导.xlsx
+++ b/导表工具/S-死亡引导.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\h10\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="宝石等级属性配置" sheetId="2" r:id="rId1"/>
@@ -25,13 +20,12 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">old data:
@@ -171,6 +165,9 @@
     <t>"siwangydlh_png"</t>
   </si>
   <si>
+    <t>{"龙魂","TreasureWin",0}</t>
+  </si>
+  <si>
     <t>{"精炼","ForgeWin",1}</t>
   </si>
   <si>
@@ -234,7 +231,10 @@
     <t>"juese_baowu"</t>
   </si>
   <si>
-    <t>"zjmlibao"</t>
+    <t>{"提升龙魂等阶","TreasureWin",0}</t>
+  </si>
+  <si>
+    <t>"new_zjmmeirilibao"</t>
   </si>
   <si>
     <t>{"每日充值不断提升","Recharge2Win"}</t>
@@ -247,21 +247,19 @@
   </si>
   <si>
     <t>{"提升VIP","VipWin"}</t>
-  </si>
-  <si>
-    <t>{"龙魂","TreasureWin",0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"提升龙魂等阶","TreasureWin",0}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +271,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -282,7 +279,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -291,7 +287,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -299,7 +294,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +301,6 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -315,38 +308,171 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,13 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79989013336588644"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,8 +503,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -440,17 +752,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -459,49 +1013,49 @@
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,13 +1073,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="52" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,21 +1093,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="常规 8" xfId="1"/>
-    <cellStyle name="常规 8 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="常规 8" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="常规 8 2" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,7 +1165,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -602,7 +1200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,7 +1235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,19 +1438,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
@@ -865,7 +1463,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +1479,7 @@
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -897,7 +1495,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -909,7 +1507,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -926,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -943,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -962,7 +1560,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" ht="14.25" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -989,7 +1587,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" ht="14.25" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1614,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" ht="14.25" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1641,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" ht="14.25" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1665,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="13.5" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1088,58 +1686,59 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="13.5" spans="9:12">
       <c r="I13" s="19"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" ht="13.5" spans="9:12">
       <c r="I14" s="19"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" ht="13.5" spans="9:12">
       <c r="I15" s="19"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" ht="13.5" spans="5:10">
       <c r="E16" s="26"/>
       <c r="I16" s="19"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="9:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="13.5" spans="9:10">
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="9:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" ht="13.5" spans="9:10">
       <c r="I18" s="19"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="9:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" ht="13.5" spans="9:10">
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
@@ -1148,7 +1747,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1788,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" ht="13.5" spans="1:10">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1235,7 +1834,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="13.5" spans="2:10">
       <c r="B8" s="20">
         <v>1</v>
       </c>
@@ -1250,7 +1849,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="13.5" spans="2:10">
       <c r="B9" s="20">
         <v>2</v>
       </c>
@@ -1266,7 +1865,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" ht="13.5" spans="2:6">
       <c r="B10" s="20">
         <v>3</v>
       </c>
@@ -1278,7 +1877,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="13.5" spans="2:6">
       <c r="B11" s="20">
         <v>4</v>
       </c>
@@ -1286,11 +1885,11 @@
         <v>39</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="13.5" spans="2:6">
       <c r="B12" s="20">
         <v>5</v>
       </c>
@@ -1298,178 +1897,178 @@
         <v>33</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" ht="13.5" spans="2:6">
       <c r="B13" s="20">
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="B14" s="20">
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="20">
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="20">
         <v>9</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="20">
         <v>10</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="20">
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="20">
         <v>12</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="20">
         <v>13</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="20">
         <v>14</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="20">
         <v>15</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="20">
         <v>16</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="20">
         <v>17</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="20">
         <v>18</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="20">
         <v>19</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="20">
         <v>20</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/导表工具/S-死亡引导.xlsx
+++ b/导表工具/S-死亡引导.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="宝石等级属性配置" sheetId="2" r:id="rId1"/>
@@ -254,9 +254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -317,28 +317,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,13 +415,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,8 +428,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,9 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,60 +460,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -505,187 +505,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,9 +755,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,47 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -835,178 +850,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,7 +1165,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
